--- a/analysis/correlations/proportionality_avg_corr.xlsx
+++ b/analysis/correlations/proportionality_avg_corr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/rdametrics/analysis/correlations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D92A80D-C4E3-E541-A480-572513D77682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEF822E-0152-0D4D-A065-5235079792E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="760" windowWidth="29160" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,6 +125,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -477,13 +478,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="143" x14ac:dyDescent="0.2">
